--- a/sampledata/RuSS_origin.xlsx
+++ b/sampledata/RuSS_origin.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10" conformance="strict">
+<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macmini_m1_2022/PycharmProjects/CoMFA_model/sampledata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{5EF0DE62-82DB-4545-8059-375DED1B3224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{D599E457-26EC-7A46-804A-B942694DEB1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7980" yWindow="1900" windowWidth="27100" windowHeight="15940"/>
+    <workbookView xWindow="7880" yWindow="4140" windowWidth="27100" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="(S)-XylBINAP_(S)-DAIPEN_1117" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="157" uniqueCount="114">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="163" uniqueCount="120">
   <si>
     <t>name</t>
   </si>
@@ -65,352 +65,418 @@
     <t>table2</t>
   </si>
   <si>
+    <t>ethylphenylketone</t>
+  </si>
+  <si>
+    <t>c1ccccc1C(=O)CC</t>
+  </si>
+  <si>
+    <t>C(=O)(c1ccccc1)C(C)C</t>
+  </si>
+  <si>
+    <t>c1ccccc1C(=O)C1CC1</t>
+  </si>
+  <si>
+    <t>C(=O)(c1c(C)cccc1)C</t>
+  </si>
+  <si>
+    <t>C(=O)(c1c(F)cccc1)C</t>
+  </si>
+  <si>
+    <t>C(=O)(c1c(Cl)cccc1)C</t>
+  </si>
+  <si>
+    <t>C(=O)(c1c(Br)cccc1)C</t>
+  </si>
+  <si>
+    <t>C(=O)(c1c(C(F)(F)F)cccc1)C</t>
+  </si>
+  <si>
+    <t>C(=O)(c1c(OC)cccc1)C</t>
+  </si>
+  <si>
+    <t>C(=O)(c1c(NC(=O)C)cccc1)C</t>
+  </si>
+  <si>
+    <t>C(=O)(c1cc(C)ccc1)C</t>
+  </si>
+  <si>
+    <t>C(=O)(c1cc(F)ccc1)C</t>
+  </si>
+  <si>
+    <t>C(=O)(c1cc(Br)ccc1)C</t>
+  </si>
+  <si>
+    <t>C(=O)(c1cc(C(F)(F)F)ccc1)C</t>
+  </si>
+  <si>
+    <t>C(=O)(c1cc(OC)ccc1)C</t>
+  </si>
+  <si>
+    <t>C(=O)(c1ccc(C)cc1)C</t>
+  </si>
+  <si>
+    <t>C(=O)(c1ccc(CCCC)cc1)C</t>
+  </si>
+  <si>
+    <t>C(=O)(c1ccc(c2ccccc2)cc1)C</t>
+  </si>
+  <si>
+    <t>C(=O)(c1ccc(Br)cc1)C</t>
+  </si>
+  <si>
+    <t>C(=O)(c1ccc(I)cc1)C</t>
+  </si>
+  <si>
+    <t>C(=O)(c1ccc(C(F)(F)F)cc1)C</t>
+  </si>
+  <si>
+    <t>C(=O)(c1ccc(OC)cc1)C</t>
+  </si>
+  <si>
+    <t>C(=O)(c1ccc(C(=O)OC(C)C)cc1)C</t>
+  </si>
+  <si>
+    <t>C(=O)(c1ccc([N+]([O-])=O)cc1)C</t>
+  </si>
+  <si>
+    <t>C(=O)(c1ccc(N)cc1)C</t>
+  </si>
+  <si>
+    <t>C(=O)(c1cc(F)ccc1)CC</t>
+  </si>
+  <si>
+    <t>C(=O)(c1cc(Cl)ccc1)CC</t>
+  </si>
+  <si>
+    <t>C(=O)(c1c(C)cc(C)cc1)C</t>
+  </si>
+  <si>
+    <t>C(=O)(c1c(F)cc(F)cc1)C</t>
+  </si>
+  <si>
+    <t>C(=O)(c1c(Cl)cc(Cl)cc1)C</t>
+  </si>
+  <si>
+    <t>C(=O)(c1c(C(F)(F)F)cc(C(F)(F)F)cc1)C</t>
+  </si>
+  <si>
+    <t>C(=O)(c1cc(OC)c(OC)c(OC)c1)C</t>
+  </si>
+  <si>
+    <t>C(=O)(C(F)(F)(F))c1ccccc1</t>
+  </si>
+  <si>
+    <t>scheme27</t>
+  </si>
+  <si>
+    <t>C(=O)(C(F)(F)(F))c1ccc(Cl)cc1</t>
+  </si>
+  <si>
+    <t>C(=O)(C(F)(F)(F))c1ccc(Br)cc1</t>
+  </si>
+  <si>
+    <t>C(=O)(C(F)(F)(F))c1ccc(OC)cc1</t>
+  </si>
+  <si>
+    <t>C(=O)(c1ccccc1C)c1ccccc1</t>
+  </si>
+  <si>
+    <t>scheme30</t>
+  </si>
+  <si>
+    <t>tBuOK</t>
+  </si>
+  <si>
+    <t>C(=O)(c1ccccc1F)c1ccccc1</t>
+  </si>
+  <si>
+    <t>C(=O)(c1ccccc1Cl)c1ccccc1</t>
+  </si>
+  <si>
+    <t>C(=O)(c1ccccc1Br)c1ccccc1</t>
+  </si>
+  <si>
+    <t>C(=O)(c1ccccc1Br)c1cc(C)ccc1</t>
+  </si>
+  <si>
+    <t>scheme32</t>
+  </si>
+  <si>
+    <t>C(=O)(C1CC1)C</t>
+  </si>
+  <si>
+    <t>scheme33</t>
+  </si>
+  <si>
+    <t>C(=O)(c2ccccc2)C1CC1</t>
+  </si>
+  <si>
+    <t>scheme34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(R)-XylBINAP/(R)-DAIPEN Ru </t>
+  </si>
+  <si>
+    <t>scheme36</t>
+  </si>
+  <si>
+    <t>C(=O)(CN(C)c1ccccc1)C</t>
+  </si>
+  <si>
+    <t>C(=O)(C(C)NC(=O)C)c1ccccc1</t>
+  </si>
+  <si>
+    <t>O=C(CNC(C1=CC=CC=C1)=O)c2ccccc2</t>
+  </si>
+  <si>
+    <t>c1ccccc1OCN(C)CC(=O)c1ccccc1</t>
+  </si>
+  <si>
+    <t>scheme37</t>
+  </si>
+  <si>
+    <t>scheme38</t>
+  </si>
+  <si>
+    <t>scheme39</t>
+  </si>
+  <si>
+    <t>C(=O)(C(OC)OC)C</t>
+  </si>
+  <si>
+    <t>COCC(=O)c1ccccc1</t>
+  </si>
+  <si>
+    <t>C(=O)(C(OCC)OCC)c1ccccc1</t>
+  </si>
+  <si>
+    <t>scheme40</t>
+  </si>
+  <si>
+    <t>C(=O)(/C=C/c1ccccc1)C(C)C</t>
+  </si>
+  <si>
+    <t>C(=O)(c1ccccc1)/C=C/c2ccccc2</t>
+  </si>
+  <si>
+    <t>C(=O)(/C=C/CCCCC)C</t>
+  </si>
+  <si>
+    <t>C(=O)(/C=C/C)CC(C)C</t>
+  </si>
+  <si>
+    <t>C(=O)(/C=C/C1=C(C)CCCC1(C)(C))C</t>
+  </si>
+  <si>
+    <t>C(=O)(C=C(C)C)C</t>
+  </si>
+  <si>
+    <t>C(=O)(C1=CCCCC1)C</t>
+  </si>
+  <si>
+    <t>C(=O)(C1=CCCCCC1)C</t>
+  </si>
+  <si>
+    <t>C(=O)(C1=C(C)CCC1)C</t>
+  </si>
+  <si>
+    <t>scheme54</t>
+  </si>
+  <si>
+    <t>notice: diastereoselective</t>
+  </si>
+  <si>
+    <t>c1ccccc1[C@@H](C)C(=O)c1ccccc1</t>
+  </si>
+  <si>
+    <t>Asymmetric Hydrogenation of Alkenyl, Cyclopropyl, and Aryl Ketones. RuCl2(xylbinap)(1,2-diamine) as a Precatalyst Exhibiting a Wide Scope | Journal of the American Chemical Society (acs.org)</t>
+  </si>
+  <si>
+    <t>C(=O)(C1=CC=CO1)C</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>C(=O)(C1=CC=CO1)CCCCC</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>C(=O)(C1=CC=CS1)C</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>C(=O)(C1=CC=CO1)CCCC=C</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>C(=O)(C1=CSC=C1)C</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>C(=O)(C1=NC=CS1)C</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>O=C(C1=CC=CN1S(=O)(c2ccc(C)cc2)=O)C</t>
+  </si>
+  <si>
+    <t>fix©</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>(true)</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>C(=O)(C1=NC=CC=C1)C</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>C(=O)(C1=CN=CC=C1)C</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>C(=O)(C1=CC=NC=C1)C</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>C(=O)(C1=NC=CC=C1)C(C)C</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>C(=O)(C1CCCCC1)C</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>C(=O)(CN(C)C)C</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>C(=O)(C(C)NC)c1ccccc1</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>c1cc(OC)c(OC)cc1CCN(C(=O)c1ccccc1)CC(=O)c1ccc(OCc2ccccc2)cc1</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>CC(C)(C)OC(=O)N(C)CC(=O)c1ccccc1</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>C(=O)(c1ccccc1)CCN(C)C</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>C(=O)(C1=SC=CC1)CCN(C)C</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>C(=O)(c1ccc(F)cc1)CCCN2CCN(C3=NCC(F)C=N3)CC2</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>C(=O)(COc1ccccc1)C</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>C(=O)(/C=C/c1ccccc1)C</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>C(=O)(/C=C/C1=SC=CC1)C</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>C(=O)(C1=Cc2c(OC)ccc(OC)c2CC1)C</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>C(=O)(c1cc2ccccc2cc1)C</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>C(=O)(c1ccccc1OC)c1ccccc1</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
     <t>Asymmetric Catalysis by Architectural and Functional Molecular Engineering: Practical Chemo‐ and Stereoselective Hydrogenation of Ketones (wiley.com)</t>
-  </si>
-  <si>
-    <t>ethylphenylketone</t>
-  </si>
-  <si>
-    <t>c1ccccc1C(=O)CC</t>
-  </si>
-  <si>
-    <t>C(=O)(c1ccccc1)C(C)C</t>
-  </si>
-  <si>
-    <t>c1ccccc1C(=O)C1CC1</t>
-  </si>
-  <si>
-    <t>C(=O)(c1c(C)cccc1)C</t>
-  </si>
-  <si>
-    <t>C(=O)(c1c(F)cccc1)C</t>
-  </si>
-  <si>
-    <t>C(=O)(c1c(Cl)cccc1)C</t>
-  </si>
-  <si>
-    <t>C(=O)(c1c(Br)cccc1)C</t>
-  </si>
-  <si>
-    <t>C(=O)(c1c(C(F)(F)F)cccc1)C</t>
-  </si>
-  <si>
-    <t>C(=O)(c1c(OC)cccc1)C</t>
-  </si>
-  <si>
-    <t>C(=O)(c1c(NC(=O)C)cccc1)C</t>
-  </si>
-  <si>
-    <t>C(=O)(c1cc(C)ccc1)C</t>
-  </si>
-  <si>
-    <t>C(=O)(c1cc(F)ccc1)C</t>
-  </si>
-  <si>
-    <t>C(=O)(c1cc(Br)ccc1)C</t>
-  </si>
-  <si>
-    <t>C(=O)(c1cc(C(F)(F)F)ccc1)C</t>
-  </si>
-  <si>
-    <t>C(=O)(c1cc(OC)ccc1)C</t>
-  </si>
-  <si>
-    <t>C(=O)(c1ccc(C)cc1)C</t>
-  </si>
-  <si>
-    <t>C(=O)(c1ccc(CCCC)cc1)C</t>
-  </si>
-  <si>
-    <t>C(=O)(c1ccc(c2ccccc2)cc1)C</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>url</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://onlinelibrary.wiley.com/doi/epdf/10.1002/1521-3773%2820010105%2940%3A1%3C40%3A%3AAID-ANIE40%3E3.0.CO%3B2-5</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>cit</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>citation</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <r>
+      <t>Noyori, Ryoji, and Takeshi Ohkuma. "Asymmetric catalysis by architectural and functional molecular engineering: practical chemo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF222222"/>
+        <rFont val="MS Mincho"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>‐</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>and stereoselective hydrogenation of ketones." </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="13"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Angewandte Chemie International Edition</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> 40.1 (2001): 40-73.</t>
+    </r>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>R. Noyori et al., Angew. Chem. Int., 40.1 (2001): 40.</t>
+    <phoneticPr fontId="18"/>
   </si>
   <si>
     <t>C(=O)(c1ccc(F)cc1)C</t>
-  </si>
-  <si>
-    <t>C(=O)(c1ccc(Br)cc1)C</t>
-  </si>
-  <si>
-    <t>C(=O)(c1ccc(I)cc1)C</t>
-  </si>
-  <si>
-    <t>C(=O)(c1ccc(C(F)(F)F)cc1)C</t>
-  </si>
-  <si>
-    <t>C(=O)(c1ccc(OC)cc1)C</t>
-  </si>
-  <si>
-    <t>C(=O)(c1ccc(C(=O)OC(C)C)cc1)C</t>
-  </si>
-  <si>
-    <t>C(=O)(c1ccc([N+]([O-])=O)cc1)C</t>
-  </si>
-  <si>
-    <t>C(=O)(c1ccc(N)cc1)C</t>
-  </si>
-  <si>
-    <t>C(=O)(c1cc(F)ccc1)CC</t>
-  </si>
-  <si>
-    <t>C(=O)(c1cc(Cl)ccc1)CC</t>
-  </si>
-  <si>
-    <t>C(=O)(c1c(C)cc(C)cc1)C</t>
-  </si>
-  <si>
-    <t>C(=O)(c1c(F)cc(F)cc1)C</t>
-  </si>
-  <si>
-    <t>C(=O)(c1c(Cl)cc(Cl)cc1)C</t>
-  </si>
-  <si>
-    <t>C(=O)(c1c(C(F)(F)F)cc(C(F)(F)F)cc1)C</t>
-  </si>
-  <si>
-    <t>C(=O)(c1cc(OC)c(OC)c(OC)c1)C</t>
-  </si>
-  <si>
-    <t>C(=O)(C(F)(F)(F))c1ccccc1</t>
-  </si>
-  <si>
-    <t>scheme27</t>
-  </si>
-  <si>
-    <t>C(=O)(C(F)(F)(F))c1ccc(Cl)cc1</t>
-  </si>
-  <si>
-    <t>C(=O)(C(F)(F)(F))c1ccc(Br)cc1</t>
-  </si>
-  <si>
-    <t>C(=O)(C(F)(F)(F))c1ccc(OC)cc1</t>
-  </si>
-  <si>
-    <t>C(=O)(c1ccccc1C)c1ccccc1</t>
-  </si>
-  <si>
-    <t>scheme30</t>
-  </si>
-  <si>
-    <t>tBuOK</t>
-  </si>
-  <si>
-    <t>C(=O)(c1ccccc1F)c1ccccc1</t>
-  </si>
-  <si>
-    <t>C(=O)(c1ccccc1Cl)c1ccccc1</t>
-  </si>
-  <si>
-    <t>C(=O)(c1ccccc1Br)c1ccccc1</t>
-  </si>
-  <si>
-    <t>C(=O)(c1ccccc1Br)c1cc(C)ccc1</t>
-  </si>
-  <si>
-    <t>scheme32</t>
-  </si>
-  <si>
-    <t>C(=O)(C1CC1)C</t>
-  </si>
-  <si>
-    <t>scheme33</t>
-  </si>
-  <si>
-    <t>C(=O)(c2ccccc2)C1CC1</t>
-  </si>
-  <si>
-    <t>scheme34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(R)-XylBINAP/(R)-DAIPEN Ru </t>
-  </si>
-  <si>
-    <t>scheme36</t>
-  </si>
-  <si>
-    <t>C(=O)(CN(C)c1ccccc1)C</t>
-  </si>
-  <si>
-    <t>C(=O)(C(C)NC(=O)C)c1ccccc1</t>
-  </si>
-  <si>
-    <t>O=C(CNC(C1=CC=CC=C1)=O)c2ccccc2</t>
-  </si>
-  <si>
-    <t>c1ccccc1OCN(C)CC(=O)c1ccccc1</t>
-  </si>
-  <si>
-    <t>scheme37</t>
-  </si>
-  <si>
-    <t>scheme38</t>
-  </si>
-  <si>
-    <t>scheme39</t>
-  </si>
-  <si>
-    <t>C(=O)(C(OC)OC)C</t>
-  </si>
-  <si>
-    <t>COCC(=O)c1ccccc1</t>
-  </si>
-  <si>
-    <t>C(=O)(C(OCC)OCC)c1ccccc1</t>
-  </si>
-  <si>
-    <t>scheme40</t>
-  </si>
-  <si>
-    <t>C(=O)(/C=C/c1ccccc1)C(C)C</t>
-  </si>
-  <si>
-    <t>C(=O)(c1ccccc1)/C=C/c2ccccc2</t>
-  </si>
-  <si>
-    <t>C(=O)(/C=C/CCCCC)C</t>
-  </si>
-  <si>
-    <t>C(=O)(/C=C/C)CC(C)C</t>
-  </si>
-  <si>
-    <t>C(=O)(/C=C/C1=C(C)CCCC1(C)(C))C</t>
-  </si>
-  <si>
-    <t>C(=O)(C=C(C)C)C</t>
-  </si>
-  <si>
-    <t>C(=O)(C1=CCCCC1)C</t>
-  </si>
-  <si>
-    <t>C(=O)(C1=CCCCCC1)C</t>
-  </si>
-  <si>
-    <t>C(=O)(C1=C(C)CCC1)C</t>
-  </si>
-  <si>
-    <t>scheme54</t>
-  </si>
-  <si>
-    <t>notice: diastereoselective</t>
-  </si>
-  <si>
-    <t>c1ccccc1[C@@H](C)C(=O)c1ccccc1</t>
-  </si>
-  <si>
-    <t>Asymmetric Hydrogenation of Alkenyl, Cyclopropyl, and Aryl Ketones. RuCl2(xylbinap)(1,2-diamine) as a Precatalyst Exhibiting a Wide Scope | Journal of the American Chemical Society (acs.org)</t>
-  </si>
-  <si>
-    <t>C(=O)(C1=CC=CO1)C</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>C(=O)(C1=CC=CO1)CCCCC</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>C(=O)(C1=CC=CS1)C</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>C(=O)(C1=CC=CO1)CCCC=C</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>C(=O)(C1=CSC=C1)C</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>C(=O)(C1=NC=CS1)C</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>O=C(C1=CC=CN1S(=O)(c2ccc(C)cc2)=O)C</t>
-  </si>
-  <si>
-    <t>fix©</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>(true)</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>C(=O)(C1=NC=CC=C1)C</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>C(=O)(C1=CN=CC=C1)C</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>C(=O)(C1=CC=NC=C1)C</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>C(=O)(C1=NC=CC=C1)C(C)C</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>C(=O)(C1CCCCC1)C</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>C(=O)(CN(C)C)C</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>C(=O)(C(C)NC)c1ccccc1</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>c1cc(OC)c(OC)cc1CCN(C(=O)c1ccccc1)CC(=O)c1ccc(OCc2ccccc2)cc1</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>CC(C)(C)OC(=O)N(C)CC(=O)c1ccccc1</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>C(=O)(c1ccccc1)CCN(C)C</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>C(=O)(C1=SC=CC1)CCN(C)C</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>C(=O)(c1ccc(F)cc1)CCCN2CCN(C3=NCC(F)C=N3)CC2</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>C(=O)(COc1ccccc1)C</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>C(=O)(/C=C/c1ccccc1)C</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>C(=O)(/C=C/C1=SC=CC1)C</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>C(=O)(C1=Cc2c(OC)ccc(OC)c2CC1)C</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>C(=O)(c1cc2ccccc2cc1)C</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>C(=O)(c1ccccc1OC)c1ccccc1</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="20">
+<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="24">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -576,6 +642,35 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="13"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF222222"/>
+      <name val="MS Mincho"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -874,7 +969,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1001,16 +1096,25 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="42">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - アクセント 1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - アクセント 2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - アクセント 3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -1038,6 +1142,7 @@
     <cellStyle name="タイトル" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="チェック セル" xfId="13" builtinId="23" customBuiltin="1"/>
     <cellStyle name="どちらでもない" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="ハイパーリンク" xfId="42" builtinId="8"/>
     <cellStyle name="メモ" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="リンク セル" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="悪い" xfId="7" builtinId="27" customBuiltin="1"/>
@@ -1363,16 +1468,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J89"/>
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1392,10 +1497,19 @@
         <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>92</v>
+      </c>
+      <c r="I1" t="s">
+        <v>113</v>
+      </c>
+      <c r="J1" t="s">
+        <v>116</v>
+      </c>
+      <c r="K1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1416,15 +1530,24 @@
         <v>8</v>
       </c>
       <c r="G2" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="K2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
         <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
       </c>
       <c r="C3">
         <v>99</v>
@@ -1437,9 +1560,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:11">
       <c r="B4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4">
         <v>99</v>
@@ -1452,9 +1575,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:11">
       <c r="B5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5">
         <v>96</v>
@@ -1467,9 +1590,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:11">
       <c r="B6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6">
         <v>99</v>
@@ -1482,9 +1605,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:11">
       <c r="B7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7">
         <v>97</v>
@@ -1497,9 +1620,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:11">
       <c r="B8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8">
         <v>98</v>
@@ -1512,9 +1635,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:11">
       <c r="B9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9">
         <v>96</v>
@@ -1527,9 +1650,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:11">
       <c r="B10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10">
         <v>99</v>
@@ -1542,9 +1665,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:11">
       <c r="B11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11">
         <v>92</v>
@@ -1557,9 +1680,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:11">
       <c r="B12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12">
         <v>98</v>
@@ -1572,9 +1695,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:11">
       <c r="B13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13">
         <v>100</v>
@@ -1587,9 +1710,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:11">
       <c r="B14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C14">
         <v>98</v>
@@ -1602,9 +1725,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:11">
       <c r="B15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C15">
         <v>99.5</v>
@@ -1617,9 +1740,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:11">
       <c r="B16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16">
         <v>99</v>
@@ -1634,7 +1757,7 @@
     </row>
     <row r="17" spans="2:5">
       <c r="B17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17">
         <v>99</v>
@@ -1649,7 +1772,7 @@
     </row>
     <row r="18" spans="2:5">
       <c r="B18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18">
         <v>98</v>
@@ -1664,7 +1787,7 @@
     </row>
     <row r="19" spans="2:5">
       <c r="B19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C19">
         <v>98</v>
@@ -1679,7 +1802,7 @@
     </row>
     <row r="20" spans="2:5">
       <c r="B20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C20">
         <v>97</v>
@@ -1694,7 +1817,7 @@
     </row>
     <row r="21" spans="2:5">
       <c r="B21" t="s">
-        <v>29</v>
+        <v>119</v>
       </c>
       <c r="C21">
         <v>97</v>
@@ -1709,7 +1832,7 @@
     </row>
     <row r="22" spans="2:5">
       <c r="B22" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C22">
         <v>99.6</v>
@@ -1724,7 +1847,7 @@
     </row>
     <row r="23" spans="2:5">
       <c r="B23" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C23">
         <v>99</v>
@@ -1739,7 +1862,7 @@
     </row>
     <row r="24" spans="2:5">
       <c r="B24" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C24">
         <v>99.6</v>
@@ -1754,7 +1877,7 @@
     </row>
     <row r="25" spans="2:5">
       <c r="B25" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C25">
         <v>100</v>
@@ -1769,7 +1892,7 @@
     </row>
     <row r="26" spans="2:5">
       <c r="B26" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C26">
         <v>99</v>
@@ -1784,7 +1907,7 @@
     </row>
     <row r="27" spans="2:5">
       <c r="B27" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C27">
         <v>99.8</v>
@@ -1799,7 +1922,7 @@
     </row>
     <row r="28" spans="2:5">
       <c r="B28" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C28">
         <v>99</v>
@@ -1814,7 +1937,7 @@
     </row>
     <row r="29" spans="2:5">
       <c r="B29" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C29">
         <v>99</v>
@@ -1829,7 +1952,7 @@
     </row>
     <row r="30" spans="2:5">
       <c r="B30" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C30">
         <v>99</v>
@@ -1844,7 +1967,7 @@
     </row>
     <row r="31" spans="2:5">
       <c r="B31" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C31">
         <v>99</v>
@@ -1859,7 +1982,7 @@
     </row>
     <row r="32" spans="2:5">
       <c r="B32" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C32">
         <v>97</v>
@@ -1874,7 +1997,7 @@
     </row>
     <row r="33" spans="2:7">
       <c r="B33" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C33">
         <v>96</v>
@@ -1889,7 +2012,7 @@
     </row>
     <row r="34" spans="2:7">
       <c r="B34" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C34">
         <v>99.5</v>
@@ -1904,7 +2027,7 @@
     </row>
     <row r="35" spans="2:7">
       <c r="B35" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C35">
         <v>98</v>
@@ -1919,7 +2042,7 @@
     </row>
     <row r="36" spans="2:7">
       <c r="B36" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C36">
         <v>99</v>
@@ -1934,7 +2057,7 @@
     </row>
     <row r="37" spans="2:7">
       <c r="B37" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C37">
         <v>-96</v>
@@ -1947,12 +2070,12 @@
         <v>301</v>
       </c>
       <c r="F37" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38" spans="2:7">
       <c r="B38" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C38">
         <v>-94</v>
@@ -1967,7 +2090,7 @@
     </row>
     <row r="39" spans="2:7">
       <c r="B39" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C39">
         <v>-94</v>
@@ -1982,7 +2105,7 @@
     </row>
     <row r="40" spans="2:7">
       <c r="B40" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C40">
         <v>-96</v>
@@ -1997,7 +2120,7 @@
     </row>
     <row r="41" spans="2:7">
       <c r="B41" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C41">
         <v>-93</v>
@@ -2010,15 +2133,15 @@
         <v>301</v>
       </c>
       <c r="F41" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G41" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="42" spans="2:7">
       <c r="B42" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C42">
         <v>-97</v>
@@ -2033,7 +2156,7 @@
     </row>
     <row r="43" spans="2:7">
       <c r="B43" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C43">
         <v>-97</v>
@@ -2048,7 +2171,7 @@
     </row>
     <row r="44" spans="2:7">
       <c r="B44" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C44">
         <v>-96</v>
@@ -2063,7 +2186,7 @@
     </row>
     <row r="45" spans="2:7">
       <c r="B45" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C45">
         <v>-98</v>
@@ -2078,7 +2201,7 @@
     </row>
     <row r="46" spans="2:7">
       <c r="B46" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C46">
         <v>-99.4</v>
@@ -2093,7 +2216,7 @@
     </row>
     <row r="47" spans="2:7">
       <c r="B47" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C47">
         <v>99</v>
@@ -2106,12 +2229,12 @@
         <v>301</v>
       </c>
       <c r="F47" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="48" spans="2:7">
       <c r="B48" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C48">
         <v>98</v>
@@ -2126,7 +2249,7 @@
     </row>
     <row r="49" spans="2:8">
       <c r="B49" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C49">
         <v>99</v>
@@ -2141,7 +2264,7 @@
     </row>
     <row r="50" spans="2:8">
       <c r="B50" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C50">
         <v>97</v>
@@ -2156,7 +2279,7 @@
     </row>
     <row r="51" spans="2:8">
       <c r="B51" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C51">
         <v>99.7</v>
@@ -2171,7 +2294,7 @@
     </row>
     <row r="52" spans="2:8">
       <c r="B52" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C52">
         <v>96</v>
@@ -2186,7 +2309,7 @@
     </row>
     <row r="53" spans="2:8">
       <c r="B53" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C53">
         <v>98</v>
@@ -2199,12 +2322,12 @@
         <v>301</v>
       </c>
       <c r="H53" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="54" spans="2:8">
       <c r="B54" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C54">
         <v>96</v>
@@ -2217,12 +2340,12 @@
         <v>301</v>
       </c>
       <c r="H54" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="55" spans="2:8">
       <c r="B55" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C55">
         <v>99.6</v>
@@ -2235,12 +2358,12 @@
         <v>301</v>
       </c>
       <c r="H55" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="56" spans="2:8">
       <c r="B56" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C56">
         <v>99.8</v>
@@ -2253,12 +2376,12 @@
         <v>301</v>
       </c>
       <c r="H56" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="57" spans="2:8">
       <c r="B57" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C57">
         <v>94</v>
@@ -2271,12 +2394,12 @@
         <v>301</v>
       </c>
       <c r="H57" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="58" spans="2:8">
       <c r="B58" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C58">
         <v>95</v>
@@ -2289,15 +2412,15 @@
         <v>301</v>
       </c>
       <c r="F58" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H58" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="59" spans="2:8">
       <c r="B59" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C59">
         <v>96</v>
@@ -2310,12 +2433,12 @@
         <v>301</v>
       </c>
       <c r="H59" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="60" spans="2:8">
       <c r="B60" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C60">
         <v>85</v>
@@ -2328,18 +2451,18 @@
         <v>301</v>
       </c>
       <c r="F60" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G60" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H60" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="61" spans="2:8">
       <c r="B61" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C61">
         <v>92</v>
@@ -2352,18 +2475,18 @@
         <v>301</v>
       </c>
       <c r="F61" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G61" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H61" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="62" spans="2:8">
       <c r="B62" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C62">
         <v>81</v>
@@ -2376,15 +2499,15 @@
         <v>301</v>
       </c>
       <c r="G62" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H62" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="63" spans="2:8">
       <c r="B63" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C63">
         <v>-93</v>
@@ -2397,15 +2520,15 @@
         <v>301</v>
       </c>
       <c r="G63" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H63" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="64" spans="2:8">
       <c r="B64" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C64">
         <v>-99</v>
@@ -2418,15 +2541,15 @@
         <v>301</v>
       </c>
       <c r="G64" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H64" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="65" spans="2:10">
       <c r="B65" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C65">
         <v>-95</v>
@@ -2439,15 +2562,15 @@
         <v>301</v>
       </c>
       <c r="G65" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H65" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="66" spans="2:10">
       <c r="B66" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C66">
         <v>-99.8</v>
@@ -2460,15 +2583,15 @@
         <v>301</v>
       </c>
       <c r="G66" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="67" spans="2:10">
       <c r="B67" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C67">
         <v>-99</v>
@@ -2481,10 +2604,10 @@
         <v>301</v>
       </c>
       <c r="G67" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H67" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J67" t="b">
         <v>1</v>
@@ -2492,7 +2615,7 @@
     </row>
     <row r="68" spans="2:10">
       <c r="B68" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C68">
         <v>-97</v>
@@ -2505,18 +2628,18 @@
         <v>301</v>
       </c>
       <c r="F68" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G68" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H68" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="69" spans="2:10">
       <c r="B69" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C69">
         <v>97.5</v>
@@ -2529,15 +2652,15 @@
         <v>301</v>
       </c>
       <c r="F69" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H69" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="70" spans="2:10">
       <c r="B70" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C70">
         <v>92</v>
@@ -2550,12 +2673,12 @@
         <v>301</v>
       </c>
       <c r="H70" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="71" spans="2:10">
       <c r="B71" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C71">
         <v>99</v>
@@ -2568,12 +2691,12 @@
         <v>301</v>
       </c>
       <c r="H71" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="72" spans="2:10">
       <c r="B72" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C72">
         <v>80</v>
@@ -2586,18 +2709,18 @@
         <v>301</v>
       </c>
       <c r="F72" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G72" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H72" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="73" spans="2:10">
       <c r="B73" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C73">
         <v>98</v>
@@ -2610,12 +2733,12 @@
         <v>301</v>
       </c>
       <c r="H73" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="74" spans="2:10">
       <c r="B74" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C74">
         <v>-95</v>
@@ -2628,12 +2751,12 @@
         <v>301</v>
       </c>
       <c r="H74" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="75" spans="2:10">
       <c r="B75" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C75">
         <v>-37</v>
@@ -2646,12 +2769,12 @@
         <v>301</v>
       </c>
       <c r="H75" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="76" spans="2:10">
       <c r="B76" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C76">
         <v>97</v>
@@ -2664,15 +2787,15 @@
         <v>301</v>
       </c>
       <c r="F76" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H76" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="77" spans="2:10">
       <c r="B77" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C77">
         <v>86</v>
@@ -2685,12 +2808,12 @@
         <v>301</v>
       </c>
       <c r="H77" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="78" spans="2:10">
       <c r="B78" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C78">
         <v>42</v>
@@ -2703,12 +2826,12 @@
         <v>301</v>
       </c>
       <c r="H78" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="79" spans="2:10">
       <c r="B79" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C79">
         <v>97</v>
@@ -2721,12 +2844,12 @@
         <v>301</v>
       </c>
       <c r="H79" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="80" spans="2:10">
       <c r="B80" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C80">
         <v>90</v>
@@ -2739,12 +2862,12 @@
         <v>301</v>
       </c>
       <c r="H80" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="81" spans="2:8">
       <c r="B81" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C81">
         <v>94</v>
@@ -2757,12 +2880,12 @@
         <v>301</v>
       </c>
       <c r="H81" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="82" spans="2:8">
       <c r="B82" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C82">
         <v>91</v>
@@ -2775,12 +2898,12 @@
         <v>301</v>
       </c>
       <c r="H82" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="83" spans="2:8">
       <c r="B83" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C83">
         <v>93</v>
@@ -2793,12 +2916,12 @@
         <v>301</v>
       </c>
       <c r="H83" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="84" spans="2:8">
       <c r="B84" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C84">
         <v>100</v>
@@ -2811,12 +2934,12 @@
         <v>301</v>
       </c>
       <c r="H84" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="85" spans="2:8">
       <c r="B85" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C85">
         <v>94</v>
@@ -2829,12 +2952,12 @@
         <v>301</v>
       </c>
       <c r="H85" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="86" spans="2:8">
       <c r="B86" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C86">
         <v>99</v>
@@ -2847,12 +2970,12 @@
         <v>301</v>
       </c>
       <c r="H86" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="87" spans="2:8">
       <c r="B87" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C87">
         <v>99</v>
@@ -2865,27 +2988,30 @@
         <v>301</v>
       </c>
       <c r="H87" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="88" spans="2:8">
       <c r="F88" t="s">
+        <v>81</v>
+      </c>
+      <c r="G88" t="s">
+        <v>82</v>
+      </c>
+      <c r="H88" t="s">
         <v>83</v>
-      </c>
-      <c r="G88" t="s">
-        <v>84</v>
-      </c>
-      <c r="H88" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="89" spans="2:8">
       <c r="G89" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18"/>
+  <hyperlinks>
+    <hyperlink ref="I2" r:id="rId1" xr:uid="{AE1153E8-93EE-DC43-A061-6E5B9C0FF56E}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/sampledata/RuSS_origin.xlsx
+++ b/sampledata/RuSS_origin.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macmini_m1_2022/PycharmProjects/CoMFA_model/sampledata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{D599E457-26EC-7A46-804A-B942694DEB1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{175CC9FD-DC62-D044-878B-4103BABE41FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7880" yWindow="4140" windowWidth="27100" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9040" yWindow="1000" windowWidth="27100" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="(S)-XylBINAP_(S)-DAIPEN_1117" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="163" uniqueCount="120">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="164" uniqueCount="121">
   <si>
     <t>name</t>
   </si>
@@ -288,9 +288,6 @@
   </si>
   <si>
     <t>c1ccccc1[C@@H](C)C(=O)c1ccccc1</t>
-  </si>
-  <si>
-    <t>Asymmetric Hydrogenation of Alkenyl, Cyclopropyl, and Aryl Ketones. RuCl2(xylbinap)(1,2-diamine) as a Precatalyst Exhibiting a Wide Scope | Journal of the American Chemical Society (acs.org)</t>
   </si>
   <si>
     <t>C(=O)(C1=CC=CO1)C</t>
@@ -470,6 +467,13 @@
   <si>
     <t>C(=O)(c1ccc(F)cc1)C</t>
     <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Asymmetric Hydrogenation of Alkenyl, Cyclopropyl, and Aryl Ketones. RuCl2(xylbinap)(1,2-diamine) as a Precatalyst Exhibiting a Wide Scope | Journal of the American Chemical Society (acs.org)</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://pubs.acs.org/doi/epdf/10.1021/ja983257u</t>
   </si>
 </sst>
 </file>
@@ -1469,10 +1473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K89"/>
+  <dimension ref="A1:K90"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="B71" sqref="B71"/>
+      <selection activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1497,16 +1501,16 @@
         <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -1530,16 +1534,16 @@
         <v>8</v>
       </c>
       <c r="G2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J2" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="K2" t="s">
         <v>117</v>
-      </c>
-      <c r="K2" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1817,7 +1821,7 @@
     </row>
     <row r="21" spans="2:5">
       <c r="B21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C21">
         <v>97</v>
@@ -2027,7 +2031,7 @@
     </row>
     <row r="35" spans="2:7">
       <c r="B35" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C35">
         <v>98</v>
@@ -2201,7 +2205,7 @@
     </row>
     <row r="46" spans="2:7">
       <c r="B46" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C46">
         <v>-99.4</v>
@@ -2216,7 +2220,7 @@
     </row>
     <row r="47" spans="2:7">
       <c r="B47" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C47">
         <v>99</v>
@@ -2234,7 +2238,7 @@
     </row>
     <row r="48" spans="2:7">
       <c r="B48" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C48">
         <v>98</v>
@@ -2249,7 +2253,7 @@
     </row>
     <row r="49" spans="2:8">
       <c r="B49" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C49">
         <v>99</v>
@@ -2264,7 +2268,7 @@
     </row>
     <row r="50" spans="2:8">
       <c r="B50" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C50">
         <v>97</v>
@@ -2279,7 +2283,7 @@
     </row>
     <row r="51" spans="2:8">
       <c r="B51" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C51">
         <v>99.7</v>
@@ -2294,7 +2298,7 @@
     </row>
     <row r="52" spans="2:8">
       <c r="B52" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C52">
         <v>96</v>
@@ -2309,7 +2313,7 @@
     </row>
     <row r="53" spans="2:8">
       <c r="B53" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C53">
         <v>98</v>
@@ -2322,12 +2326,12 @@
         <v>301</v>
       </c>
       <c r="H53" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="54" spans="2:8">
       <c r="B54" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C54">
         <v>96</v>
@@ -2340,12 +2344,12 @@
         <v>301</v>
       </c>
       <c r="H54" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="55" spans="2:8">
       <c r="B55" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C55">
         <v>99.6</v>
@@ -2358,12 +2362,12 @@
         <v>301</v>
       </c>
       <c r="H55" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="56" spans="2:8">
       <c r="B56" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C56">
         <v>99.8</v>
@@ -2376,12 +2380,12 @@
         <v>301</v>
       </c>
       <c r="H56" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="57" spans="2:8">
       <c r="B57" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C57">
         <v>94</v>
@@ -2394,7 +2398,7 @@
         <v>301</v>
       </c>
       <c r="H57" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="58" spans="2:8">
@@ -2415,7 +2419,7 @@
         <v>56</v>
       </c>
       <c r="H58" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="59" spans="2:8">
@@ -2433,12 +2437,12 @@
         <v>301</v>
       </c>
       <c r="H59" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="60" spans="2:8">
       <c r="B60" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C60">
         <v>85</v>
@@ -2457,12 +2461,12 @@
         <v>59</v>
       </c>
       <c r="H60" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="61" spans="2:8">
       <c r="B61" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C61">
         <v>92</v>
@@ -2481,7 +2485,7 @@
         <v>59</v>
       </c>
       <c r="H61" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="62" spans="2:8">
@@ -2502,12 +2506,12 @@
         <v>59</v>
       </c>
       <c r="H62" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="63" spans="2:8">
       <c r="B63" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C63">
         <v>-93</v>
@@ -2523,7 +2527,7 @@
         <v>59</v>
       </c>
       <c r="H63" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="64" spans="2:8">
@@ -2544,7 +2548,7 @@
         <v>59</v>
       </c>
       <c r="H64" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="65" spans="2:10">
@@ -2565,7 +2569,7 @@
         <v>59</v>
       </c>
       <c r="H65" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="66" spans="2:10">
@@ -2586,12 +2590,12 @@
         <v>59</v>
       </c>
       <c r="H66" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="67" spans="2:10">
       <c r="B67" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C67">
         <v>-99</v>
@@ -2607,7 +2611,7 @@
         <v>59</v>
       </c>
       <c r="H67" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J67" t="b">
         <v>1</v>
@@ -2615,7 +2619,7 @@
     </row>
     <row r="68" spans="2:10">
       <c r="B68" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C68">
         <v>-97</v>
@@ -2634,12 +2638,12 @@
         <v>59</v>
       </c>
       <c r="H68" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="69" spans="2:10">
       <c r="B69" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C69">
         <v>97.5</v>
@@ -2655,12 +2659,12 @@
         <v>66</v>
       </c>
       <c r="H69" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="70" spans="2:10">
       <c r="B70" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C70">
         <v>92</v>
@@ -2673,12 +2677,12 @@
         <v>301</v>
       </c>
       <c r="H70" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="71" spans="2:10">
       <c r="B71" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C71">
         <v>99</v>
@@ -2691,12 +2695,12 @@
         <v>301</v>
       </c>
       <c r="H71" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="72" spans="2:10">
       <c r="B72" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C72">
         <v>80</v>
@@ -2715,7 +2719,7 @@
         <v>59</v>
       </c>
       <c r="H72" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="73" spans="2:10">
@@ -2733,7 +2737,7 @@
         <v>301</v>
       </c>
       <c r="H73" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="74" spans="2:10">
@@ -2751,7 +2755,7 @@
         <v>301</v>
       </c>
       <c r="H74" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75" spans="2:10">
@@ -2769,12 +2773,12 @@
         <v>301</v>
       </c>
       <c r="H75" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="76" spans="2:10">
       <c r="B76" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C76">
         <v>97</v>
@@ -2790,7 +2794,7 @@
         <v>71</v>
       </c>
       <c r="H76" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="77" spans="2:10">
@@ -2808,7 +2812,7 @@
         <v>301</v>
       </c>
       <c r="H77" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="78" spans="2:10">
@@ -2826,7 +2830,7 @@
         <v>301</v>
       </c>
       <c r="H78" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="79" spans="2:10">
@@ -2844,7 +2848,7 @@
         <v>301</v>
       </c>
       <c r="H79" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="80" spans="2:10">
@@ -2862,7 +2866,7 @@
         <v>301</v>
       </c>
       <c r="H80" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="81" spans="2:8">
@@ -2880,12 +2884,12 @@
         <v>301</v>
       </c>
       <c r="H81" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="82" spans="2:8">
       <c r="B82" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C82">
         <v>91</v>
@@ -2898,7 +2902,7 @@
         <v>301</v>
       </c>
       <c r="H82" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="83" spans="2:8">
@@ -2916,7 +2920,7 @@
         <v>301</v>
       </c>
       <c r="H83" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="84" spans="2:8">
@@ -2934,12 +2938,12 @@
         <v>301</v>
       </c>
       <c r="H84" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="85" spans="2:8">
       <c r="B85" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C85">
         <v>94</v>
@@ -2952,7 +2956,7 @@
         <v>301</v>
       </c>
       <c r="H85" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="86" spans="2:8">
@@ -2970,7 +2974,7 @@
         <v>301</v>
       </c>
       <c r="H86" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="87" spans="2:8">
@@ -2988,7 +2992,7 @@
         <v>301</v>
       </c>
       <c r="H87" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="88" spans="2:8">
@@ -3004,7 +3008,12 @@
     </row>
     <row r="89" spans="2:8">
       <c r="G89" t="s">
-        <v>84</v>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="90" spans="2:8">
+      <c r="G90" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
